--- a/Backend/templates/uwa.xlsx
+++ b/Backend/templates/uwa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react projects\nokia\Nokia-DWS-main\Backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react projects\nokia\new-nokia\Backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB7BCE3-B78D-4DD9-8063-D488C19BD3FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735D1DF-1B58-49AC-8580-7DA5738F2694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>Document ID</t>
+  </si>
+  <si>
+    <t>Document location</t>
+  </si>
+  <si>
+    <t>P.Nithiyakalyanam</t>
+  </si>
+  <si>
+    <t>MO Chennai Factory</t>
+  </si>
+  <si>
+    <t>Ramakrishna Patra</t>
+  </si>
+  <si>
+    <t>D524865660</t>
+  </si>
+  <si>
+    <t>https://sharenet-ims.inside.nokiasiemensnetworks.com/Guest/Overview/D524865660</t>
+  </si>
   <si>
     <t>Change History</t>
   </si>
@@ -33,62 +66,77 @@
     <t>For Internal Use</t>
   </si>
   <si>
-    <t>14-03-2018 - MMILPTPIT232-895545559-126 - 1.0</t>
-  </si>
-  <si>
-    <t>Testers Checklist UWA</t>
-  </si>
-  <si>
-    <t>Checked By</t>
+    <t>06-04-2016 - D524865660 - 4.0</t>
+  </si>
+  <si>
+    <t>This material, including documentation and any related computer programs, is protected by copyright controlled by Nokia Solutions and Networks. All rights are reserved. Copying, including reproducing, storing, adapting or translating, any or all of this material requires the prior written consent of  Nokia Solutions and Networks. This material also contains confidential information, which may not  be disclosed to others without the prior written consent of Nokia Solutions and Networks.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Shift</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Machine Sl No</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>UWA1</t>
-  </si>
-  <si>
-    <t>UWA2</t>
-  </si>
-  <si>
-    <t>UWA3</t>
-  </si>
-  <si>
-    <t>UWA4</t>
-  </si>
-  <si>
-    <t>UWA5</t>
-  </si>
-  <si>
-    <t>UWA6</t>
-  </si>
-  <si>
-    <t>UWA7</t>
-  </si>
-  <si>
-    <t>UWA8</t>
-  </si>
-  <si>
-    <t>UWA9</t>
-  </si>
-  <si>
-    <t>UWA10</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>UWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uwa1 </t>
+  </si>
+  <si>
+    <t>Uwa2</t>
+  </si>
+  <si>
+    <t>Uwa3</t>
+  </si>
+  <si>
+    <t>Uwa4</t>
+  </si>
+  <si>
+    <t>Uwa5</t>
+  </si>
+  <si>
+    <t>Uwa6</t>
+  </si>
+  <si>
+    <t>Uwa7</t>
+  </si>
+  <si>
+    <t>Uwa8</t>
+  </si>
+  <si>
+    <t>Uwa9</t>
+  </si>
+  <si>
+    <t>Uwa10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +169,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,16 +208,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,15 +226,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -189,7 +258,26 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -513,155 +601,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="L10:T15"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="A22:N1048576 A21:W21">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{37FAF1AC-5547-4C8B-B53B-377EACF0DB70}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>